--- a/data/profiles/xlsx/bluff/profile 21-12 graph.xlsx
+++ b/data/profiles/xlsx/bluff/profile 21-12 graph.xlsx
@@ -6933,11 +6933,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="57343299"/>
-        <c:axId val="18519079"/>
+        <c:axId val="99882858"/>
+        <c:axId val="14516891"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57343299"/>
+        <c:axId val="99882858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6972,12 +6972,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18519079"/>
+        <c:crossAx val="14516891"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="18519079"/>
+        <c:axId val="14516891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7021,7 +7021,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57343299"/>
+        <c:crossAx val="99882858"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
